--- a/biology/Zoologie/Gallotia_goliath/Gallotia_goliath.xlsx
+++ b/biology/Zoologie/Gallotia_goliath/Gallotia_goliath.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gallotia goliath ou lézard géant goliath de Tenerife[1] est une espèce fossile de squamates sauriens de la famille des Lacertidae. L'espèce de Gallotia goliath était le reptile plus grand de ceux trouvés dans les îles Canaries, il a atteint une longueur de 120 à 125 centimètres.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gallotia goliath ou lézard géant goliath de Tenerife est une espèce fossile de squamates sauriens de la famille des Lacertidae. L'espèce de Gallotia goliath était le reptile plus grand de ceux trouvés dans les îles Canaries, il a atteint une longueur de 120 à 125 centimètres.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce lézard a été découvert au Barranco de las Moraditas, à Tenerife, aux îles Canaries (Espagne)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce lézard a été découvert au Barranco de las Moraditas, à Tenerife, aux îles Canaries (Espagne).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Paléoenvironnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vivait à la période du Quaternaire. Il semble avoir disparu peu après l'arrivée des Hommes dans l'archipel, il y a environ 2 000 ans av. J.‑C.[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vivait à la période du Quaternaire. Il semble avoir disparu peu après l'arrivée des Hommes dans l'archipel, il y a environ 2 000 ans av. J.‑C..
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite en 19421942 en paléontologie par le zoologiste allemand Robert Friedrich Wilhelm Mertens (1894-1975)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 19421942 en paléontologie par le zoologiste allemand Robert Friedrich Wilhelm Mertens (1894-1975).
 </t>
         </is>
       </c>
